--- a/раздел5/помехоустойчивость.xlsx
+++ b/раздел5/помехоустойчивость.xlsx
@@ -412,7 +412,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -468,7 +468,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>1.79E-22</v>
+        <v>1E-4</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -476,8 +476,8 @@
         <v>4</v>
       </c>
       <c r="B8" s="3">
-        <f>(1-B7)^80</f>
-        <v>1</v>
+        <f>ROUND((1-B7)^80,10)</f>
+        <v>0.992031518</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -494,7 +494,7 @@
       </c>
       <c r="B11" s="4">
         <f>E10*B7*(1-B7)^79+E11*B7^2*(1-B7)^78</f>
-        <v>3.5800000000000001E-21</v>
+        <v>1.98614669905478E-3</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
@@ -517,7 +517,7 @@
       </c>
       <c r="B13" s="4">
         <f>E12*B7^3*(1-B7)^77+E13*B7^4*(1-B7)^76</f>
-        <v>6.5382864599999993E-63</v>
+        <v>1.131707820527052E-9</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>

--- a/раздел5/помехоустойчивость.xlsx
+++ b/раздел5/помехоустойчивость.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>альфа</t>
   </si>
@@ -55,13 +55,79 @@
   </si>
   <si>
     <t>с4</t>
+  </si>
+  <si>
+    <t>супер формула</t>
+  </si>
+  <si>
+    <t>Дб</t>
+  </si>
+  <si>
+    <t>Дз</t>
+  </si>
+  <si>
+    <t>лямбда</t>
+  </si>
+  <si>
+    <t>усист</t>
+  </si>
+  <si>
+    <t>ур</t>
+  </si>
+  <si>
+    <t>На</t>
+  </si>
+  <si>
+    <t>Ризл</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>время</t>
+  </si>
+  <si>
+    <t>частота ГТИ</t>
+  </si>
+  <si>
+    <t>Fд</t>
+  </si>
+  <si>
+    <t>Полоса частот</t>
+  </si>
+  <si>
+    <t>F0</t>
+  </si>
+  <si>
+    <t>T байта</t>
+  </si>
+  <si>
+    <t>Т бит</t>
+  </si>
+  <si>
+    <t>Ln(1/2Po)</t>
+  </si>
+  <si>
+    <t>P 0ш</t>
+  </si>
+  <si>
+    <t>V r</t>
+  </si>
+  <si>
+    <t>R t</t>
+  </si>
+  <si>
+    <t>P изл</t>
+  </si>
+  <si>
+    <t>Pош</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,8 +135,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -89,8 +172,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -98,18 +191,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="2"/>
+    <xf numFmtId="11" fontId="1" fillId="4" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="2" fillId="5" borderId="1" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Вывод" xfId="2" builtinId="21"/>
+    <cellStyle name="Нейтральный" xfId="1" builtinId="28"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -409,43 +526,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.6640625" customWidth="1"/>
     <col min="2" max="2" width="17.77734375" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" customWidth="1"/>
+    <col min="8" max="8" width="19.5546875" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1">
         <v>9.2070000000000007</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1">
+        <v>62.25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="7">
+        <v>1.5E-3</v>
+      </c>
+      <c r="K3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -453,8 +600,22 @@
         <f>B5*B5</f>
         <v>84.768849000000017</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="8">
+        <f>H3/13</f>
+        <v>1.1538461538461538E-4</v>
+      </c>
+      <c r="K4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="8">
+        <f>300000000/H12</f>
+        <v>72.115384615384613</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -462,39 +623,101 @@
         <f>SQRT(B1*B1*B2/B3)</f>
         <v>9.2070000000000007</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="8">
+        <f>H4/8</f>
+        <v>1.4423076923076923E-5</v>
+      </c>
+      <c r="K5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <f>L16</f>
+        <v>1.5565838496339708E-5</v>
+      </c>
+      <c r="K7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="3">
         <f>ROUND((1-B7)^80,10)</f>
-        <v>0.992031518</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.99875549829999999</v>
+      </c>
+      <c r="K8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="5">
+        <v>62.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="8">
+        <f>1/H5</f>
+        <v>69333.333333333328</v>
+      </c>
+      <c r="K9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="8">
+        <f>H9/4</f>
+        <v>17333.333333333332</v>
+      </c>
+      <c r="K10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="4">
         <f>E10*B7*(1-B7)^79+E11*B7^2*(1-B7)^78</f>
-        <v>1.98614669905478E-3</v>
+        <v>3.1098015586900399E-4</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
@@ -502,28 +725,80 @@
       <c r="E11" s="1">
         <v>190</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="8">
+        <f>3*H9</f>
+        <v>208000</v>
+      </c>
+      <c r="K11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11" s="7">
+        <f>1/H5</f>
+        <v>69333.333333333328</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
         <v>11</v>
       </c>
       <c r="E12">
         <v>1140</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="8">
+        <f>20*H11</f>
+        <v>4160000</v>
+      </c>
+      <c r="K12" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12" s="7">
+        <f>L6*LN(80/H5)</f>
+        <v>11.646530778516921</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="4">
         <f>E12*B7^3*(1-B7)^77+E13*B7^4*(1-B7)^76</f>
-        <v>1.131707820527052E-9</v>
+        <v>4.2946612696923566E-12</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
       </c>
       <c r="E13">
         <v>4560</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L14" s="8">
+        <f>(1/(L5*2))*(L11/L12)*(L1/L10)*((3.14*L2*L3*L7)/(2*L4*L9))^2</f>
+        <v>10.377284704332771</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L15" s="6">
+        <f>EXP(L14)</f>
+        <v>32121.623266075552</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K16" t="s">
+        <v>34</v>
+      </c>
+      <c r="L16" s="8">
+        <f>1/(2*EXP(L14))</f>
+        <v>1.5565838496339708E-5</v>
       </c>
     </row>
   </sheetData>
